--- a/biology/Zoologie/Barbillon/Barbillon.xlsx
+++ b/biology/Zoologie/Barbillon/Barbillon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbillon est un terme anatomique désignant certaines excroissances situées sur la tête d’un animal, généralement près de sa bouche[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbillon est un terme anatomique désignant certaines excroissances situées sur la tête d’un animal, généralement près de sa bouche.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Poissons</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez certains poissons, ce sont des filaments tactiles mous et sensibles placés par paires de chaque côté de la bouche. C'est un organe sensoriel (cellules gustatives et tactiles pour détecter les courants, les mouvements et les variations de température), à l'instar de nos papilles gustatives[2],[3]. De nombreux poissons benthiques ont des barbillons pour fouiller le fond des rivières ou des étangs (notamment la plupart des 2 500  à   3 000 espèces ou dénominations différentes de Siluriformes). La dénomination de « poisson-chat » couvre de nombreuses espèces caractérisées par la présence de barbillons autour de la bouche couramment appelés « moustaches », et qui font penser aux vibrisses des chats (qui elles aussi sont couramment appelées « moustaches ».
-« Barbillon » est aussi un mot régional (par exemple dans le Loiret) utilisé pour désigner un jeune barbeau[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez certains poissons, ce sont des filaments tactiles mous et sensibles placés par paires de chaque côté de la bouche. C'est un organe sensoriel (cellules gustatives et tactiles pour détecter les courants, les mouvements et les variations de température), à l'instar de nos papilles gustatives,. De nombreux poissons benthiques ont des barbillons pour fouiller le fond des rivières ou des étangs (notamment la plupart des 2 500  à   3 000 espèces ou dénominations différentes de Siluriformes). La dénomination de « poisson-chat » couvre de nombreuses espèces caractérisées par la présence de barbillons autour de la bouche couramment appelés « moustaches », et qui font penser aux vibrisses des chats (qui elles aussi sont couramment appelées « moustaches ».
+« Barbillon » est aussi un mot régional (par exemple dans le Loiret) utilisé pour désigner un jeune barbeau,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Oiseaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les barbillons sont des appendices charnus qui tombent de chaque côté de la tête de plusieurs oiseaux, principalement des espèces de l’ordre des gallinacés.
-Tout comme la crête, ils aident à réguler la température de l’oiseau, ils constituent un caractère sexuel secondaire et ils donnent également des indications sur l’état de santé général de l’oiseau[5].
-Ils peuvent aussi être causés par une maladie de la langue de certains rapaces, dont les faucons[6].
+Tout comme la crête, ils aident à réguler la température de l’oiseau, ils constituent un caractère sexuel secondaire et ils donnent également des indications sur l’état de santé général de l’oiseau.
+Ils peuvent aussi être causés par une maladie de la langue de certains rapaces, dont les faucons.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Mammifères</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les barbillons sont aussi des replis membraneux placés sous la langue du cheval ou des bovidés et destinés à faciliter les mouvements de celle-ci[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les barbillons sont aussi des replis membraneux placés sous la langue du cheval ou des bovidés et destinés à faciliter les mouvements de celle-ci.
 </t>
         </is>
       </c>
